--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Rspo1-Lgr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,22 +82,22 @@
     <t>Inflammatory-Mac</t>
   </si>
   <si>
+    <t>Rspo1</t>
+  </si>
+  <si>
+    <t>Lgr4</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Rspo1</t>
-  </si>
-  <si>
-    <t>Lgr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,13 +528,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>24</v>
-      </c>
-      <c r="D2" t="s">
-        <v>25</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -549,10 +549,10 @@
         <v>0.210976</v>
       </c>
       <c r="I2">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J2">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.263917333333333</v>
+        <v>2.175215</v>
       </c>
       <c r="N2">
-        <v>3.791752</v>
+        <v>6.525645</v>
       </c>
       <c r="O2">
-        <v>0.06307655211196753</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="P2">
-        <v>0.06307655211196754</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="Q2">
-        <v>0.08888540777244446</v>
+        <v>0.1529727199466667</v>
       </c>
       <c r="R2">
-        <v>0.799968669952</v>
+        <v>1.37675447952</v>
       </c>
       <c r="S2">
-        <v>0.005187313834917661</v>
+        <v>0.02272464935743521</v>
       </c>
       <c r="T2">
-        <v>0.005187313834917661</v>
+        <v>0.02272464935743521</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,10 +590,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
         <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -611,10 +611,10 @@
         <v>0.210976</v>
       </c>
       <c r="I3">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J3">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>32.614791</v>
       </c>
       <c r="O3">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="P3">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="Q3">
         <v>0.7645486828906667</v>
@@ -641,10 +641,10 @@
         <v>6.880938146015999</v>
       </c>
       <c r="S3">
-        <v>0.04461872943622051</v>
+        <v>0.1135764647542172</v>
       </c>
       <c r="T3">
-        <v>0.04461872943622051</v>
+        <v>0.1135764647542172</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,10 +652,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>21</v>
@@ -673,10 +673,10 @@
         <v>0.210976</v>
       </c>
       <c r="I4">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J4">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1440293333333333</v>
+        <v>0.428447</v>
       </c>
       <c r="N4">
-        <v>0.432088</v>
+        <v>1.285341</v>
       </c>
       <c r="O4">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="P4">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="Q4">
-        <v>0.01012891087644445</v>
+        <v>0.03013067809066667</v>
       </c>
       <c r="R4">
-        <v>0.09116019788800001</v>
+        <v>0.271176102816</v>
       </c>
       <c r="S4">
-        <v>0.0005911188443500267</v>
+        <v>0.004476020918964352</v>
       </c>
       <c r="T4">
-        <v>0.0005911188443500267</v>
+        <v>0.004476020918964351</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,13 +714,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -735,10 +735,10 @@
         <v>0.210976</v>
       </c>
       <c r="I5">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J5">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.022347333333333</v>
+        <v>3.202622333333333</v>
       </c>
       <c r="N5">
-        <v>21.067042</v>
+        <v>9.607866999999999</v>
       </c>
       <c r="O5">
-        <v>0.3504544528645356</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="P5">
-        <v>0.3504544528645357</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="Q5">
-        <v>0.4938489169991112</v>
+        <v>0.2252254831324444</v>
       </c>
       <c r="R5">
-        <v>4.444640252992</v>
+        <v>2.027029348192</v>
       </c>
       <c r="S5">
-        <v>0.02882080854111541</v>
+        <v>0.03345805796176055</v>
       </c>
       <c r="T5">
-        <v>0.02882080854111541</v>
+        <v>0.03345805796176055</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.210976</v>
       </c>
       <c r="I6">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J6">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6215056666666666</v>
+        <v>1.223995666666667</v>
       </c>
       <c r="N6">
-        <v>1.864517</v>
+        <v>3.671987</v>
       </c>
       <c r="O6">
-        <v>0.03101661282545624</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="P6">
-        <v>0.03101661282545625</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="Q6">
-        <v>0.04370759317688889</v>
+        <v>0.0860779032568889</v>
       </c>
       <c r="R6">
-        <v>0.393368338592</v>
+        <v>0.774701129312</v>
       </c>
       <c r="S6">
-        <v>0.002550756175387834</v>
+        <v>0.01278718303249111</v>
       </c>
       <c r="T6">
-        <v>0.002550756175387834</v>
+        <v>0.01278718303249111</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,13 +838,13 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,40 +859,40 @@
         <v>0.210976</v>
       </c>
       <c r="I7">
-        <v>0.08223838591731571</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="J7">
-        <v>0.08223838591731569</v>
+        <v>0.1886527232569993</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.114435</v>
+        <v>0.1560576666666667</v>
       </c>
       <c r="N7">
-        <v>0.343305</v>
+        <v>0.468173</v>
       </c>
       <c r="O7">
-        <v>0.00571094726733157</v>
+        <v>0.008642055115789912</v>
       </c>
       <c r="P7">
-        <v>0.00571094726733157</v>
+        <v>0.008642055115789912</v>
       </c>
       <c r="Q7">
-        <v>0.008047679520000002</v>
+        <v>0.01097480742755555</v>
       </c>
       <c r="R7">
-        <v>0.07242911568</v>
+        <v>0.09877326684799999</v>
       </c>
       <c r="S7">
-        <v>0.0004696590853242532</v>
+        <v>0.001630347232130849</v>
       </c>
       <c r="T7">
-        <v>0.0004696590853242531</v>
+        <v>0.001630347232130849</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,31 +900,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>24</v>
       </c>
-      <c r="D8" t="s">
-        <v>25</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H8">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J8">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.263917333333333</v>
+        <v>2.175215</v>
       </c>
       <c r="N8">
-        <v>3.791752</v>
+        <v>6.525645</v>
       </c>
       <c r="O8">
-        <v>0.06307655211196753</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="P8">
-        <v>0.06307655211196754</v>
+        <v>0.1204575739226287</v>
       </c>
       <c r="Q8">
-        <v>0.07587717057777778</v>
+        <v>0.6578966770366668</v>
       </c>
       <c r="R8">
-        <v>0.6828945352000001</v>
+        <v>5.92107009333</v>
       </c>
       <c r="S8">
-        <v>0.004428158755823745</v>
+        <v>0.09773292456519353</v>
       </c>
       <c r="T8">
-        <v>0.004428158755823747</v>
+        <v>0.09773292456519352</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,31 +962,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
         <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H9">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J9">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>32.614791</v>
       </c>
       <c r="O9">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="P9">
-        <v>0.5425535647195359</v>
+        <v>0.6020398899807737</v>
       </c>
       <c r="Q9">
-        <v>0.6526582065666666</v>
+        <v>3.288129008112667</v>
       </c>
       <c r="R9">
-        <v>5.8739238591</v>
+        <v>29.593161073014</v>
       </c>
       <c r="S9">
-        <v>0.03808884978131784</v>
+        <v>0.4884634252265565</v>
       </c>
       <c r="T9">
-        <v>0.03808884978131784</v>
+        <v>0.4884634252265565</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,31 +1024,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" t="s">
         <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H10">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J10">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1440293333333333</v>
+        <v>0.428447</v>
       </c>
       <c r="N10">
-        <v>0.432088</v>
+        <v>1.285341</v>
       </c>
       <c r="O10">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="P10">
-        <v>0.007187870211173049</v>
+        <v>0.0237262459915128</v>
       </c>
       <c r="Q10">
-        <v>0.008646560977777778</v>
+        <v>0.1295843664126667</v>
       </c>
       <c r="R10">
-        <v>0.07781904880000001</v>
+        <v>1.166259297714</v>
       </c>
       <c r="S10">
-        <v>0.0005046095473771415</v>
+        <v>0.01925022507254845</v>
       </c>
       <c r="T10">
-        <v>0.0005046095473771415</v>
+        <v>0.01925022507254844</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,31 +1086,31 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
         <v>23</v>
       </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H11">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J11">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.022347333333333</v>
+        <v>3.202622333333333</v>
       </c>
       <c r="N11">
-        <v>21.067042</v>
+        <v>9.607866999999999</v>
       </c>
       <c r="O11">
-        <v>0.3504544528645356</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="P11">
-        <v>0.3504544528645357</v>
+        <v>0.1773526370789838</v>
       </c>
       <c r="Q11">
-        <v>0.4215749182444444</v>
+        <v>0.9686373948797776</v>
       </c>
       <c r="R11">
-        <v>3.7941742642</v>
+        <v>8.717736553917998</v>
       </c>
       <c r="S11">
-        <v>0.02460292932966254</v>
+        <v>0.1438945791172232</v>
       </c>
       <c r="T11">
-        <v>0.02460292932966255</v>
+        <v>0.1438945791172232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,31 +1148,31 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H12">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J12">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.6215056666666666</v>
+        <v>1.223995666666667</v>
       </c>
       <c r="N12">
-        <v>1.864517</v>
+        <v>3.671987</v>
       </c>
       <c r="O12">
-        <v>0.03101661282545624</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="P12">
-        <v>0.03101661282545625</v>
+        <v>0.06778159791031105</v>
       </c>
       <c r="Q12">
-        <v>0.03731105685555555</v>
+        <v>0.3701991213775556</v>
       </c>
       <c r="R12">
-        <v>0.3357995117</v>
+        <v>3.331792092398</v>
       </c>
       <c r="S12">
-        <v>0.002177457090793972</v>
+        <v>0.05499441487781993</v>
       </c>
       <c r="T12">
-        <v>0.002177457090793972</v>
+        <v>0.05499441487781993</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,433 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.06003333333333333</v>
+        <v>0.3024513333333333</v>
       </c>
       <c r="H13">
-        <v>0.1801</v>
+        <v>0.907354</v>
       </c>
       <c r="I13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="J13">
-        <v>0.07020292973470232</v>
+        <v>0.8113472767430007</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.114435</v>
+        <v>0.1560576666666667</v>
       </c>
       <c r="N13">
-        <v>0.343305</v>
+        <v>0.468173</v>
       </c>
       <c r="O13">
-        <v>0.00571094726733157</v>
+        <v>0.008642055115789912</v>
       </c>
       <c r="P13">
-        <v>0.00571094726733157</v>
+        <v>0.008642055115789912</v>
       </c>
       <c r="Q13">
-        <v>0.006869914500000001</v>
+        <v>0.04719984936022222</v>
       </c>
       <c r="R13">
-        <v>0.06182923050000001</v>
+        <v>0.424798644242</v>
       </c>
       <c r="S13">
-        <v>0.0004009252297270685</v>
+        <v>0.007011707883659062</v>
       </c>
       <c r="T13">
-        <v>0.0004009252297270685</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H14">
-        <v>2.174344</v>
-      </c>
-      <c r="I14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J14">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K14">
-        <v>3</v>
-      </c>
-      <c r="L14">
-        <v>1</v>
-      </c>
-      <c r="M14">
-        <v>1.263917333333333</v>
-      </c>
-      <c r="N14">
-        <v>3.791752</v>
-      </c>
-      <c r="O14">
-        <v>0.06307655211196753</v>
-      </c>
-      <c r="P14">
-        <v>0.06307655211196754</v>
-      </c>
-      <c r="Q14">
-        <v>0.9160636900764443</v>
-      </c>
-      <c r="R14">
-        <v>8.244573210687999</v>
-      </c>
-      <c r="S14">
-        <v>0.05346107952122612</v>
-      </c>
-      <c r="T14">
-        <v>0.05346107952122613</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H15">
-        <v>2.174344</v>
-      </c>
-      <c r="I15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J15">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>10.871597</v>
-      </c>
-      <c r="N15">
-        <v>32.614791</v>
-      </c>
-      <c r="O15">
-        <v>0.5425535647195359</v>
-      </c>
-      <c r="P15">
-        <v>0.5425535647195359</v>
-      </c>
-      <c r="Q15">
-        <v>7.879530569122664</v>
-      </c>
-      <c r="R15">
-        <v>70.91577512210398</v>
-      </c>
-      <c r="S15">
-        <v>0.4598459855019975</v>
-      </c>
-      <c r="T15">
-        <v>0.4598459855019975</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H16">
-        <v>2.174344</v>
-      </c>
-      <c r="I16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J16">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0.1440293333333333</v>
-      </c>
-      <c r="N16">
-        <v>0.432088</v>
-      </c>
-      <c r="O16">
-        <v>0.007187870211173049</v>
-      </c>
-      <c r="P16">
-        <v>0.007187870211173049</v>
-      </c>
-      <c r="Q16">
-        <v>0.1043897722524444</v>
-      </c>
-      <c r="R16">
-        <v>0.9395079502719998</v>
-      </c>
-      <c r="S16">
-        <v>0.006092141819445881</v>
-      </c>
-      <c r="T16">
-        <v>0.006092141819445882</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H17">
-        <v>2.174344</v>
-      </c>
-      <c r="I17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J17">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>7.022347333333333</v>
-      </c>
-      <c r="N17">
-        <v>21.067042</v>
-      </c>
-      <c r="O17">
-        <v>0.3504544528645356</v>
-      </c>
-      <c r="P17">
-        <v>0.3504544528645357</v>
-      </c>
-      <c r="Q17">
-        <v>5.08966626338311</v>
-      </c>
-      <c r="R17">
-        <v>45.80699637044799</v>
-      </c>
-      <c r="S17">
-        <v>0.2970307149937577</v>
-      </c>
-      <c r="T17">
-        <v>0.2970307149937577</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>22</v>
-      </c>
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="F18">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H18">
-        <v>2.174344</v>
-      </c>
-      <c r="I18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J18">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K18">
-        <v>3</v>
-      </c>
-      <c r="L18">
-        <v>1</v>
-      </c>
-      <c r="M18">
-        <v>0.6215056666666666</v>
-      </c>
-      <c r="N18">
-        <v>1.864517</v>
-      </c>
-      <c r="O18">
-        <v>0.03101661282545624</v>
-      </c>
-      <c r="P18">
-        <v>0.03101661282545625</v>
-      </c>
-      <c r="Q18">
-        <v>0.4504557057608888</v>
-      </c>
-      <c r="R18">
-        <v>4.054101351847999</v>
-      </c>
-      <c r="S18">
-        <v>0.02628839955927444</v>
-      </c>
-      <c r="T18">
-        <v>0.02628839955927444</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19">
-        <v>2</v>
-      </c>
-      <c r="F19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G19">
-        <v>0.7247813333333332</v>
-      </c>
-      <c r="H19">
-        <v>2.174344</v>
-      </c>
-      <c r="I19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="J19">
-        <v>0.847558684347982</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.114435</v>
-      </c>
-      <c r="N19">
-        <v>0.343305</v>
-      </c>
-      <c r="O19">
-        <v>0.00571094726733157</v>
-      </c>
-      <c r="P19">
-        <v>0.00571094726733157</v>
-      </c>
-      <c r="Q19">
-        <v>0.08294035187999999</v>
-      </c>
-      <c r="R19">
-        <v>0.7464631669199999</v>
-      </c>
-      <c r="S19">
-        <v>0.004840362952280249</v>
-      </c>
-      <c r="T19">
-        <v>0.004840362952280249</v>
+        <v>0.007011707883659062</v>
       </c>
     </row>
   </sheetData>
